--- a/schemas/processingPipelineSchema.xlsx
+++ b/schemas/processingPipelineSchema.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gosl241\OneDrive - PNNL\Documents\GitHub\srpAnalytics\data\dataSchemas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3244A6-37A0-4D03-9097-EDB795CEC2F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{6F79A314-FB93-4CE0-9B48-700EA16B140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E5698D-EECA-4162-8ECB-007C6389A52A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{3244EBFB-4E91-45FC-B66B-30D163E3937A}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="environmentalSample" sheetId="1" r:id="rId1"/>
     <sheet name="zebrafish raw data" sheetId="2" r:id="rId2"/>
     <sheet name="zebrafish processed data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="139">
   <si>
     <t>SampleNumber</t>
   </si>
@@ -227,9 +218,6 @@
     <t>Project Information</t>
   </si>
   <si>
-    <t>Concentration Unity</t>
-  </si>
-  <si>
     <t>Sample Concentration</t>
   </si>
   <si>
@@ -278,13 +266,188 @@
     <t>Well of plate</t>
   </si>
   <si>
-    <t>Date assay was completed</t>
-  </si>
-  <si>
     <t>Endpoint measured</t>
   </si>
   <si>
-    <t>Response (number of fish with phenotype?</t>
+    <t>Individual Fish Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal bottle identifer </t>
+  </si>
+  <si>
+    <t>Date assay was initated</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Chemical Abstract Service number assigned by the American Chemical Society</t>
+  </si>
+  <si>
+    <t>Location longitude</t>
+  </si>
+  <si>
+    <t>Location latitude</t>
+  </si>
+  <si>
+    <t>Additional descripition of the location</t>
+  </si>
+  <si>
+    <t>alternative name for the location</t>
+  </si>
+  <si>
+    <t>J,B,U,JB,Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg/uL </t>
+  </si>
+  <si>
+    <t>Soil,PSD-Water,PSD-Air,QF-Filter PM,Sediment,Fish - Crayfish,Plant,Tar ball,Other,Water,Metals/Alloys/Slags,Urine,Serum,Fish - Salmon,PSD-Pore Water,Fish - Shrimp,PSD-Personal,Fish - Clams,PSD-QC,PSD-Pet Tag</t>
+  </si>
+  <si>
+    <t>associated zebrafish sample number sent for zebrafish testing</t>
+  </si>
+  <si>
+    <t>date_sample_start</t>
+  </si>
+  <si>
+    <t>Date sample start</t>
+  </si>
+  <si>
+    <t>The single sample date for organisms, or the finish sample date for passive samplers</t>
+  </si>
+  <si>
+    <t>the date the samplers started sampling (for passive samplers)</t>
+  </si>
+  <si>
+    <t>ng/L, ng/m3, ng/g</t>
+  </si>
+  <si>
+    <t>An additional qualifier to denote any additional notes to the environmental concentration:
+J flag: Indicates lower precision in quantitation due to values near limits of detection or matrix effects.
+B flag: The sample was background corrected.
+N/A Y flag: Indicates a chemical is present but unable to quantify due to matrix interference.
+U: Detection limit, indicates value was below limit of detection.</t>
+  </si>
+  <si>
+    <t>decimal 123.456 or N/A</t>
+  </si>
+  <si>
+    <t>mmol/L,mmol/m3,mmol/g</t>
+  </si>
+  <si>
+    <t>The sample concentration of the chemical back calculated to it's environment (air/water/wristband) and converted to its molar equivalent</t>
+  </si>
+  <si>
+    <t>The sample concentration of the chemical converted to its molar equivalent</t>
+  </si>
+  <si>
+    <t>The units the environmental concentration are reported in.</t>
+  </si>
+  <si>
+    <t>The units the sample concentration are reported in.</t>
+  </si>
+  <si>
+    <t>The units the environmental molar concentration are reported in.</t>
+  </si>
+  <si>
+    <t>The units the sample molar concentration are reported in.</t>
+  </si>
+  <si>
+    <t>If present, the sample that the current sample is associated with, usually as a sub sample of the parent sample number</t>
+  </si>
+  <si>
+    <t>Lists any samples that tag this sample as a parent sample.</t>
+  </si>
+  <si>
+    <t>Name of the grant or client the sample was associated with</t>
+  </si>
+  <si>
+    <t>Name of the project that the sample was associated with</t>
+  </si>
+  <si>
+    <t>URL to the project page</t>
+  </si>
+  <si>
+    <t>Internal sample tracking number, generated by PNNL in pipeline.</t>
+  </si>
+  <si>
+    <t>Description of immediate environment  describing immediate location of sample.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of technology used to capture the sample. </t>
+  </si>
+  <si>
+    <t>PSD, DogTag, WristBand</t>
+  </si>
+  <si>
+    <t>Sample Number from OSU</t>
+  </si>
+  <si>
+    <t>Internal sample name collected for historical purposes</t>
+  </si>
+  <si>
+    <t>Friendly name of the location to be shown on website</t>
+  </si>
+  <si>
+    <t>Internal chemical ID used to describe chemical.</t>
+  </si>
+  <si>
+    <t>Measurement Value Flag</t>
+  </si>
+  <si>
+    <t>Environmental Concentration Flag</t>
+  </si>
+  <si>
+    <t>Concentration Unit</t>
+  </si>
+  <si>
+    <t>The sample concentration of the chemical as measured in the sample device.</t>
+  </si>
+  <si>
+    <t>The sample concentration of the chemical back calculated to it's environment (air/water/wristband) outside of the sampling device</t>
+  </si>
+  <si>
+    <t>Nas allowed</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>list of strings</t>
+  </si>
+  <si>
+    <t>Bottle ID</t>
+  </si>
+  <si>
+    <t>Plate ID</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Zebrafish End point</t>
+  </si>
+  <si>
+    <t>Value of endpoint</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>When endpoint is DNC_ then  value is NA</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -315,12 +478,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -335,10 +510,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,23 +833,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72A1BA8-8D78-49B5-AA8B-9AB9B5D25C11}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="146" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="196.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -682,296 +865,550 @@
         <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
       <c r="D3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
+      <c r="C13" t="s">
+        <v>85</v>
       </c>
       <c r="D13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -981,22 +1418,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8195C8AF-1391-4971-A3E9-D806C9281E82}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1007,71 +1445,137 @@
         <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
       <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
       <c r="C4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
       <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
       <c r="C6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
       <c r="C7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CD4DCF-1B79-4177-B7ED-B92E006C3042}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/schemas/processingPipelineSchema.xlsx
+++ b/schemas/processingPipelineSchema.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{6F79A314-FB93-4CE0-9B48-700EA16B140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E5698D-EECA-4162-8ECB-007C6389A52A}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{6F79A314-FB93-4CE0-9B48-700EA16B140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F79D74D3-4A3B-42BE-B1C8-138F2FFB421F}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="-660" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="environmentalSample" sheetId="1" r:id="rId1"/>
     <sheet name="zebrafish raw data" sheetId="2" r:id="rId2"/>
-    <sheet name="zebrafish processed data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
   <si>
     <t>SampleNumber</t>
   </si>
@@ -836,15 +835,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="146" customWidth="1"/>
+    <col min="3" max="3" width="117" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="196.42578125" bestFit="1" customWidth="1"/>
@@ -1421,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1581,33 +1580,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>